--- a/data/income_statement/1digit/size/M_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/M_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>M-Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>M-Professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1163 +841,1313 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>845912567.6684802</v>
+        <v>12513601.5039</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1534551136.75396</v>
+        <v>14215093.44685</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>38803535.82617</v>
+        <v>14290911.051</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>18483490.72597</v>
+        <v>14140816.40991</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15644148.27694</v>
+        <v>13761156.72881</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>17390029.79258</v>
+        <v>15617505.2434</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>23692415.9544</v>
+        <v>22800328.40325</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24640056.32217</v>
+        <v>22590840.68392</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>31749284.25772</v>
+        <v>28269814.20837</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>28951828.308</v>
+        <v>24188166.06977</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>34040365.97172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>28916592.81103</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>47326900.193</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>844046773.4339502</v>
+        <v>10832603.62453</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1532375078.48582</v>
+        <v>12224548.84148</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>37089575.5561</v>
+        <v>12736727.50657</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16656252.85266</v>
+        <v>12612679.23508</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13798878.25434</v>
+        <v>12251294.66016</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14965168.3785</v>
+        <v>13590842.10184</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>21021033.37301</v>
+        <v>20455448.05768</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21780333.60917</v>
+        <v>20163443.29696</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>28092598.54119</v>
+        <v>25299895.75352</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25073123.35227999</v>
+        <v>21093596.43289</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>30064854.81185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25886674.42627</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>41732170.137</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>413488.88147</v>
+        <v>373401.38841</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>446321.65157</v>
+        <v>406888.12108</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>510082.52786</v>
+        <v>467708.08787</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>676862.88217</v>
+        <v>552572.24193</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>664301.2469900001</v>
+        <v>530261.13089</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1162916.75392</v>
+        <v>1026523.51494</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1210467.8139</v>
+        <v>1101856.12294</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1267023.80713</v>
+        <v>1120841.7701</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1521628.67047</v>
+        <v>1188375.92917</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1543407.64699</v>
+        <v>1319712.94173</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1922258.08885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1663840.2929</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3815836.366</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1452305.35306</v>
+        <v>1307596.49096</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1729736.61657</v>
+        <v>1583656.48429</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1203877.74221</v>
+        <v>1086475.45656</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1150374.99114</v>
+        <v>975564.9329000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1180968.77561</v>
+        <v>979600.9377599999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1261944.66016</v>
+        <v>1000139.62662</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1460914.76749</v>
+        <v>1243024.22263</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1592698.90587</v>
+        <v>1306555.61686</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2135057.04606</v>
+        <v>1781542.52568</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2335297.30873</v>
+        <v>1774856.69515</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2053253.07102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1366078.09186</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1778893.69</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>834877652.2143999</v>
+        <v>2467071.14338</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1521888674.63547</v>
+        <v>2580890.8869</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23687955.18778</v>
+        <v>321175.3788</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3756874.62701</v>
+        <v>369928.6098800001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>571149.98924</v>
+        <v>254056.77457</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>345360.34462</v>
+        <v>331705.71642</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>473795.19223</v>
+        <v>455403.89202</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>648086.77945</v>
+        <v>568707.4248</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>662950.6166000001</v>
+        <v>605447.7822100001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>749295.7180700001</v>
+        <v>668628.41069</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>611634.5097299999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>541233.42295</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>549945.201</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>211697.54295</v>
+        <v>207976.98069</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>122531.99596</v>
+        <v>115743.79097</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>175849.08782</v>
+        <v>169008.19973</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>300284.7329</v>
+        <v>247139.75964</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>167639.48256</v>
+        <v>167246.76847</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>245110.65216</v>
+        <v>236187.94348</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>385844.80673</v>
+        <v>373971.96842</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>545505.0633599999</v>
+        <v>479567.67076</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>560297.39075</v>
+        <v>513567.3312000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>659870.3753300001</v>
+        <v>583392.31764</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>466861.9004799999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>409191.15286</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>418112.804</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>834623038.13604</v>
+        <v>2216332.91226</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1521698412.36069</v>
+        <v>2398195.34915</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>23415660.49848</v>
+        <v>56570.33229</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3371123.14329</v>
+        <v>54228.57576000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>345422.88211</v>
+        <v>28726.4828</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>45231.07749</v>
+        <v>40700.66618</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>38527.73873999999</v>
+        <v>32493.50137</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>44445.19871</v>
+        <v>31949.57304</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>43481.57293000001</v>
+        <v>36461.39505</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>22748.71121</v>
+        <v>22509.47024</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>48795.91162000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>69163.49414</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>54784.111</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>42916.53541</v>
+        <v>42761.25043</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>67730.27881999999</v>
+        <v>66951.74678</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>96445.60148</v>
+        <v>95596.84678000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>85466.75081999999</v>
+        <v>68560.27448000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>58087.62457</v>
+        <v>58083.52329999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>55018.61497</v>
+        <v>54817.10676</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>49422.64676</v>
+        <v>48938.42223</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>58136.51738</v>
+        <v>57190.181</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>59171.65292</v>
+        <v>55419.05596</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>66676.63153</v>
+        <v>62726.62280999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>95976.69763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>62878.77595</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>77048.28599999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11034915.45408</v>
+        <v>10046530.36052</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12662462.11849</v>
+        <v>11634202.55995</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>15115580.63839</v>
+        <v>13969735.6722</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14726616.09896</v>
+        <v>13770887.80003</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15072998.2877</v>
+        <v>13507099.95424</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17044669.44796</v>
+        <v>15285799.52698</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>23218620.76217</v>
+        <v>22344924.51123</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23991969.54272</v>
+        <v>22022133.25912</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>31086333.64112</v>
+        <v>27664366.42616</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28202532.58993</v>
+        <v>23519537.65908</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>33428731.46199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>28375359.38808</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>46776954.992</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7838754.716870001</v>
+        <v>7398259.28075</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8549130.189310001</v>
+        <v>8114398.78001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10855080.76914</v>
+        <v>10368649.52731</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10445064.54866</v>
+        <v>9969274.38497</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10568114.09552</v>
+        <v>9993815.673719998</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12276070.82221</v>
+        <v>11666765.29009</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14259478.66179</v>
+        <v>13961121.66694</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>17647689.38907</v>
+        <v>16984064.92601</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>22904183.35557</v>
+        <v>21222546.05505</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18762459.53765</v>
+        <v>16868414.38536</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23955493.88462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22083312.25396</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>36197477.756</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>400056.80776</v>
+        <v>362742.51331</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>247573.24504</v>
+        <v>224242.39844</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>142735.29929</v>
+        <v>108374.21976</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>114778.48082</v>
+        <v>98438.989</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>97873.65650999999</v>
+        <v>74702.38009999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>480836.45541</v>
+        <v>436491.8381400001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>176894.9791</v>
+        <v>120614.73344</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>109953.4499</v>
+        <v>63934.1073</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>481854.82023</v>
+        <v>405085.58034</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>54649.16384</v>
+        <v>46734.29425</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>283825.13288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>262936.45024</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2467153.096</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>923444.5582300001</v>
+        <v>908855.9024</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>605616.39644</v>
+        <v>573158.83198</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>374704.7456300001</v>
+        <v>345884.67011</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>577171.3217999999</v>
+        <v>537305.5444400001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>487538.5087499999</v>
+        <v>420646.0882299999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>962263.4974400001</v>
+        <v>909217.3946099998</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1558238.37999</v>
+        <v>1460124.91234</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1132408.02965</v>
+        <v>951757.2086700001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2929529.95585</v>
+        <v>2619634.30339</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>860176.43279</v>
+        <v>564843.09636</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2532742.62772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2402738.31682</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9307174.418</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6080174.12616</v>
+        <v>5697790.828149999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7246914.310250001</v>
+        <v>6892018.68418</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9637576.338260001</v>
+        <v>9236011.555389998</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9434871.549380001</v>
+        <v>9024108.292400001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9941609.95104</v>
+        <v>9497557.369290002</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10804437.23214</v>
+        <v>10306539.69975</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>12488839.83753</v>
+        <v>12350061.84406</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16375903.50538</v>
+        <v>15965196.69375</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>19386783.63254</v>
+        <v>18121396.99281</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>17705477.63063</v>
+        <v>16126686.72043</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>21042492.1763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19396695.57705</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24313437.099</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>435079.2247199999</v>
+        <v>428870.03689</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>449026.23758</v>
+        <v>424978.86541</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>700064.3859599999</v>
+        <v>678379.08205</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>318243.19666</v>
+        <v>309421.55913</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>41091.97922000001</v>
+        <v>909.8361000000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>28533.63722</v>
+        <v>14516.35759</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35505.46517</v>
+        <v>30320.1771</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>29424.40414</v>
+        <v>3176.91629</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>106014.94695</v>
+        <v>76429.17851000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>142156.31039</v>
+        <v>130150.27432</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>96433.94772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20941.90985</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>109713.143</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3196160.73721</v>
+        <v>2648271.07977</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4113331.92918</v>
+        <v>3519803.77994</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4260499.86925</v>
+        <v>3601086.14489</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4281551.5503</v>
+        <v>3801613.41506</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4504884.192179999</v>
+        <v>3513284.28052</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4768598.625749999</v>
+        <v>3619034.23689</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8959142.100380002</v>
+        <v>8383802.844290001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6344280.15365</v>
+        <v>5038068.33311</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8182150.285549999</v>
+        <v>6441820.37111</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9440073.052280001</v>
+        <v>6651123.27372</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9473237.577370001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6292047.134120001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10579477.236</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2112451.70802</v>
+        <v>1267942.06897</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2378464.51688</v>
+        <v>1427835.46392</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2817781.97931</v>
+        <v>1751363.74385</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3348403.68805</v>
+        <v>2293023.73505</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3319589.41977</v>
+        <v>1853541.06125</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3923044.590040001</v>
+        <v>2261136.89014</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4519402.921450001</v>
+        <v>3045338.47806</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5383737.72385</v>
+        <v>3311057.18734</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6634695.439920001</v>
+        <v>3922047.19353</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>6854005.593829999</v>
+        <v>3166682.65807</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7950333.39787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4510413.85966</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5455121.678</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>49838.41911</v>
+        <v>48702.36085</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>19686.85402</v>
+        <v>18494.00777</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>50433.38171999999</v>
+        <v>49472.48851999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>80589.08794</v>
+        <v>79854.46213999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>85346.59617999999</v>
+        <v>81866.18491</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>71221.64662</v>
+        <v>68975.52681</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>84275.03683</v>
+        <v>78662.56411000002</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>84888.43955</v>
+        <v>82256.69744</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>257945.93921</v>
+        <v>255441.22155</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>229354.19591</v>
+        <v>228816.79427</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>217101.14557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>215602.2013</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>249474.316</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>301395.9625800001</v>
+        <v>289378.54244</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>363520.40687</v>
+        <v>346682.1819199999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>361541.54475</v>
+        <v>337591.29596</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>383080.44864</v>
+        <v>357039.92136</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>230372.13811</v>
+        <v>208529.43893</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>213738.51604</v>
+        <v>168285.5739</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>230848.06539</v>
+        <v>213520.64989</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>260327.68901</v>
+        <v>235270.50681</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>355056.11569</v>
+        <v>299073.29377</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>380689.14709</v>
+        <v>276642.61048</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>492823.4799999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>350473.79334</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>697220.532</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1761217.32633</v>
+        <v>929861.1656800001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1995257.25599</v>
+        <v>1062659.27423</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2405807.05284</v>
+        <v>1364299.95937</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2884734.15147</v>
+        <v>1856129.35155</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3003870.68548</v>
+        <v>1563145.43741</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3638084.42738</v>
+        <v>2023875.78943</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4204279.81923</v>
+        <v>2753155.26406</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5038521.59529</v>
+        <v>2993529.98309</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6021693.385020001</v>
+        <v>3367532.67821</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6243962.25083</v>
+        <v>2661223.25332</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>7240408.7723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3944337.865019999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4508426.83</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1083709.02919</v>
+        <v>1380329.0108</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1734867.4123</v>
+        <v>2091968.31602</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1442717.88994</v>
+        <v>1849722.40104</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>933147.86225</v>
+        <v>1508589.68001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1185294.77241</v>
+        <v>1659743.21927</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>845554.0357100001</v>
+        <v>1357897.34675</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4439739.178929999</v>
+        <v>5338464.36623</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>960542.4298</v>
+        <v>1727011.14577</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1547454.84563</v>
+        <v>2519773.17758</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2586067.458449999</v>
+        <v>3484440.61565</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1522904.1795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1781633.27446</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5124355.558</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>9787010.094099998</v>
+        <v>4435588.6483</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14967999.66167</v>
+        <v>4885805.171349999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>15247346.20418</v>
+        <v>7478042.28041</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>13374753.25233</v>
+        <v>6658378.46484</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>20603195.9912</v>
+        <v>5885812.20268</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>22469720.38401</v>
+        <v>11585381.59731</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>38980467.93986</v>
+        <v>23741062.20831</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>37296148.41254</v>
+        <v>18800684.178</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>45188403.0632</v>
+        <v>21934864.03341</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>97987808.10885002</v>
+        <v>26847866.92971</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>78772143.27920999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>27093376.56692</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>44632089.402</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1224160.65498</v>
+        <v>347936.9999099999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1528348.44547</v>
+        <v>485597.82358</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1925536.12951</v>
+        <v>749912.8650999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2538663.15849</v>
+        <v>1155469.55857</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2964169.04486</v>
+        <v>1146129.70347</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3674725.36952</v>
+        <v>1161052.82654</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4423977.0941</v>
+        <v>1771649.404</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4469864.216339999</v>
+        <v>1319837.67721</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6087514.01464</v>
+        <v>1521037.51026</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>7619232.14262</v>
+        <v>2999433.6506</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8210152.110969999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2894832.54499</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3311408.886</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1510022.56309</v>
+        <v>602168.4890500001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1910471.97342</v>
+        <v>503317.03518</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2428231.09495</v>
+        <v>750322.2827899999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>3011532.237089999</v>
+        <v>1377550.01357</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>4640226.00029</v>
+        <v>558113.56073</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4336236.78853</v>
+        <v>2254754.9621</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6309332.102770002</v>
+        <v>2267834.00632</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6633953.35477</v>
+        <v>2873793.42535</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7343674.61482</v>
+        <v>3284439.26387</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>14344319.82401</v>
+        <v>2191310.07053</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>21671812.52809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2797075.894520001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>6565339.356</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1154182.06602</v>
+        <v>552446.5591800001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>972431.64211</v>
+        <v>500775.8094999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1711504.74998</v>
+        <v>646924.7049700001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1850280.44626</v>
+        <v>895809.77444</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2100310.06233</v>
+        <v>782129.897</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2806954.14463</v>
+        <v>1392126.0383</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3204716.91657</v>
+        <v>2041182.60845</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3997855.588169999</v>
+        <v>2489862.24975</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5419539.810969999</v>
+        <v>3548452.645169999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8619609.536339998</v>
+        <v>3757313.1189</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10915831.06578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6683592.269029999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3860885.533</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>16023.02464</v>
+        <v>7703.90459</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>40375.75118000001</v>
+        <v>969.62451</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>30153.33721</v>
+        <v>15605.90026</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>21876.64817</v>
+        <v>10938.12364</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>36818.91328</v>
+        <v>18518.41095</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>53408.54005</v>
+        <v>29705.66421</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>71959.44647</v>
+        <v>39866.74627</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>82262.28189999999</v>
+        <v>44706.90833000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>113833.38906</v>
+        <v>70322.29690999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>212390.79284</v>
+        <v>127426.65511</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>292714.13778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>197843.15695</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>390337.165</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>429715.48878</v>
+        <v>82109.03261999998</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>416269.45017</v>
+        <v>64090.09196</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>302825.69173</v>
+        <v>72287.96872</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>359007.55615</v>
+        <v>126652.60906</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1166796.29037</v>
+        <v>53000.48923</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>400038.44469</v>
+        <v>54563.15773000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1255220.91821</v>
+        <v>52808.08722</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1103624.012</v>
+        <v>57314.18697</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>518147.50447</v>
+        <v>174228.57882</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>250658.09217</v>
+        <v>77778.87426999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>227891.73053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9243.84225</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>55468.277</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>249142.79306</v>
+        <v>14224.92381</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4944081.34239</v>
+        <v>25806.90482</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1222096.31023</v>
+        <v>822891.00818</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>652884.30589</v>
+        <v>20723.93603</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>836579.7570199999</v>
+        <v>94628.42939</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>604062.96751</v>
+        <v>41577.40755999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5342330.519049999</v>
+        <v>5121955.48654</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>355953.44231</v>
+        <v>33099.42513</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3116068.48609</v>
+        <v>1696102.4947</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3720209.04431</v>
+        <v>2506821.62964</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1747151.16303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>786257.95212</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4292314.232</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4426565.500030001</v>
+        <v>2356404.94204</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4482704.92168</v>
+        <v>2904927.57617</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6610998.86267</v>
+        <v>3911999.1538</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4033653.44675</v>
+        <v>2461322.843669999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7970862.438740001</v>
+        <v>2795344.531</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9533899.740329998</v>
+        <v>6069465.6987</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>17094582.63794</v>
+        <v>11753100.74504</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19404120.13528</v>
+        <v>11374690.08706</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>20410500.38261</v>
+        <v>10652079.5641</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>51415480.61195999</v>
+        <v>14179968.57623</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>31822750.92117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12505857.89047</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>24649309.336</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4085.23971</v>
+        <v>3183.90257</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>3317.9563</v>
+        <v>1697.62124</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5170.587649999999</v>
+        <v>4887.41271</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2503.09124</v>
+        <v>2111.96618</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6147.984100000001</v>
+        <v>73.49253</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>9664.08864</v>
+        <v>1750.3638</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1628.53516</v>
+        <v>892.58913</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>783.48262</v>
+        <v>31.93856</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1653.29538</v>
+        <v>5.24301</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>10958.35861</v>
+        <v>67.44150999999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>161439.43128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>638.25</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>503.88611</v>
+        <v>481.69688</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>800.1955700000001</v>
+        <v>548.1985400000001</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>8.224110000000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>550.7594799999999</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>465.1388</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>1075.30317</v>
@@ -2113,293 +2164,333 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>772608.8776799999</v>
+        <v>468928.19765</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>669998.1789500001</v>
+        <v>398622.68439</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1010029.24468</v>
+        <v>502662.78534</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>904344.1381799999</v>
+        <v>607791.41557</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>880734.74073</v>
+        <v>437873.68838</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1050265.16131</v>
+        <v>580385.4783699999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1275644.46642</v>
+        <v>690697.2321700001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1247731.89915</v>
+        <v>607348.27964</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2177465.06516</v>
+        <v>988189.93657</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11794949.70599</v>
+        <v>1007746.91292</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3722400.19058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1218673.01659</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1506388.367</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4206296.55895</v>
+        <v>2100062.55394</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4502871.656380001</v>
+        <v>2872885.52074</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5701774.37902</v>
+        <v>3258683.3295</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4144197.51501</v>
+        <v>2743235.094940001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6972503.632859999</v>
+        <v>1529313.89357</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8460400.14749</v>
+        <v>4412464.71151</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>14544722.69553</v>
+        <v>7242566.462239999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15452421.4166</v>
+        <v>6801119.61259</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17164058.21796</v>
+        <v>6921798.17212</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>62030173.18566</v>
+        <v>8714499.970509999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31999114.91441999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9896329.62634</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>19670291.933</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>21452.75623</v>
+        <v>15563.0424</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>22892.36603</v>
+        <v>16060.43152</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>32682.48353</v>
+        <v>22338.95421</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>27010.75438</v>
+        <v>18610.37005</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>45420.68438000001</v>
+        <v>42595.33244</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>33340.05943</v>
+        <v>28753.71507</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>42003.22484</v>
+        <v>38496.60885</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>40976.74791999999</v>
+        <v>35784.88504</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>43096.89058000001</v>
+        <v>40352.22333</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>173071.74121</v>
+        <v>138131.82105</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>158456.54805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>140363.52296</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>236017.263</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>111705.58833</v>
+        <v>33584.55947</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>29711.88804</v>
+        <v>20610.01126</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>52942.66537</v>
+        <v>32866.25786</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>163087.24422</v>
+        <v>142872.12825</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>73581.87105000002</v>
+        <v>26468.46411</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>106484.57868</v>
+        <v>36300.84663</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>78786.97857000001</v>
+        <v>50405.8102</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>61461.21928999999</v>
+        <v>35376.67228</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>83429.98274000001</v>
+        <v>30727.39107</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>168050.60644</v>
+        <v>82252.067</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>64145.3401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44934.59993</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>30105.104</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>50923.18988</v>
+        <v>4427.243960000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>239434.54339</v>
+        <v>196940.30001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>187146.70538</v>
+        <v>98960.25549999998</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>136314.28616</v>
+        <v>78386.28172</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>88430.63092</v>
+        <v>8513.58858</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>281144.87628</v>
+        <v>18463.28056</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>117792.16573</v>
+        <v>72377.39117</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>119444.66686</v>
+        <v>10607.55076</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>237357.38147</v>
+        <v>88115.84434000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>413178.3261</v>
+        <v>138600.11548</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>256067.76701</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>697.0417000000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>212140.24</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3835090.1122</v>
+        <v>1957210.87</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3906669.18541</v>
+        <v>2508091.638830001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4905341.52853</v>
+        <v>2726375.785850001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3534509.226719999</v>
+        <v>2402286.540839999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6505272.084810001</v>
+        <v>1416110.23882</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7809023.466240001</v>
+        <v>4240293.90916</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>13508803.62043</v>
+        <v>6934663.482650001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14700910.42247</v>
+        <v>6526160.53202</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>15910174.32161</v>
+        <v>6474456.463459998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>41220677.4897</v>
+        <v>7859138.13401</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>30705222.02586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9425191.55178</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>18160455.867</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8821.25873</v>
+        <v>4260.20874</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>3209.19746</v>
+        <v>2521.58246</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>4822.47762</v>
+        <v>2616.43239</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2425.47145</v>
+        <v>2280.51866</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1394.27808</v>
+        <v>1777.85237</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7082.76904</v>
+        <v>937.1055600000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>6702.80233</v>
+        <v>19.09108</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>855.3679100000001</v>
+        <v>6.03423</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>586.46872</v>
+        <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>8331.83779</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>28638.69377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>692757.653</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>12.72498</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>126.9129</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>282653.8253</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2423,595 +2514,673 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>6022.606870000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>178290.9286</v>
+        <v>85016.62937000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>300954.47605</v>
+        <v>128661.55666</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>518711.60569</v>
+        <v>375525.64369</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>280850.53208</v>
+        <v>98799.25542</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>258404.08362</v>
+        <v>33848.41725</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>223324.39782</v>
+        <v>87715.85452999998</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>507980.07833</v>
+        <v>146604.07829</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>528772.9921499999</v>
+        <v>193183.93826</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>889413.1728399999</v>
+        <v>288146.24992</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>20046863.18442</v>
+        <v>496377.83297</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>780561.93276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>285142.90997</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>338815.806</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2233157.33843</v>
+        <v>1221949.01397</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2239543.21598</v>
+        <v>1209095.18255</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4483565.147890001</v>
+        <v>2434447.39038</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2747685.19142</v>
+        <v>1525345.26405</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7143653.6891</v>
+        <v>3483457.54663</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7665125.473889999</v>
+        <v>4759509.473650001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15174026.97119</v>
+        <v>10797270.65147</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>17992566.61787</v>
+        <v>11493581.6701</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>18786338.26909</v>
+        <v>11882702.62923</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>41385391.39562999</v>
+        <v>17510627.73309</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32557892.20824</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>16479384.1107</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>26032693.327</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1251619.54813</v>
+        <v>706450.28838</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1497091.35803</v>
+        <v>898430.02224</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2921289.35408</v>
+        <v>1790365.2096</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1895309.53653</v>
+        <v>1186966.47688</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3854755.07831</v>
+        <v>2307234.2598</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4522174.118899999</v>
+        <v>3074655.11187</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9888217.692709999</v>
+        <v>7475367.76233</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10814424.43441</v>
+        <v>7072603.4712</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>14025211.56118</v>
+        <v>8783637.00399</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>26272468.69599</v>
+        <v>10915483.95327</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>21122452.08594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10956725.55035</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>18597677.117</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>981537.7903</v>
+        <v>515498.7255900001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>742451.8579500002</v>
+        <v>310665.16031</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1562275.79381</v>
+        <v>644082.1807799999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>852375.65489</v>
+        <v>338378.78717</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3288898.61079</v>
+        <v>1176223.28683</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3142951.35499</v>
+        <v>1684854.36178</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5285809.27848</v>
+        <v>3321902.889139999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7178142.18346</v>
+        <v>4420978.1989</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4761126.707909999</v>
+        <v>3099065.62524</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15112922.69964</v>
+        <v>6595143.77982</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11435440.1223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5522658.560349999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7435016.21</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4431265.22591</v>
+        <v>2493906.091190001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9960452.201610001</v>
+        <v>2895792.78408</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6504724.56721</v>
+        <v>3634633.96157</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7416018.40815</v>
+        <v>3898387.78586</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7672333.44165</v>
+        <v>2532783.98175</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7189748.79834</v>
+        <v>3771304.7589</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>13701457.45207</v>
+        <v>11039689.46083</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4811702.80787</v>
+        <v>2232994.04108</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10785461.42178</v>
+        <v>5650136.40964</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2841689.013989999</v>
+        <v>4107179.84176</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>15738040.33605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2499296.10434</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4053459.7</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1117563.48457</v>
+        <v>583998.26122</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1659148.18898</v>
+        <v>164581.48498</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1505431.67555</v>
+        <v>1027994.67197</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1864940.9911</v>
+        <v>442493.01189</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4762294.372070001</v>
+        <v>3524177.15717</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1494291.74009</v>
+        <v>982459.97964</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3959623.05627</v>
+        <v>2356096.40437</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5141757.981630001</v>
+        <v>3219538.22347</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7684708.76957</v>
+        <v>3077632.78324</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9934646.188380001</v>
+        <v>1330636.86099</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6697963.553090001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1598340.64075</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2092287.807</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>10633.11046</v>
+        <v>3447.074729999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11534.97525</v>
+        <v>1533.60077</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4100.77678</v>
+        <v>712.21074</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>41629.29097000001</v>
+        <v>37370.28306</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8907.561720000002</v>
+        <v>803.47037</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4730.917869999999</v>
+        <v>2179.82053</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>10384.55997</v>
+        <v>3107.99853</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11472.60126</v>
+        <v>6949.673960000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>10910.30479</v>
+        <v>6142.90292</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12266.62878</v>
+        <v>3113.54749</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>25397.35093</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6160.11866</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>38133.853</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1106930.37411</v>
+        <v>580551.1864899999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1647613.21373</v>
+        <v>163047.88421</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1501330.89877</v>
+        <v>1027282.46123</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1823311.70013</v>
+        <v>405122.72883</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4753386.810349999</v>
+        <v>3523373.6868</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1489560.82222</v>
+        <v>980280.15911</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3949238.4963</v>
+        <v>2352988.40584</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5130285.380369999</v>
+        <v>3212588.54951</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7673798.464780001</v>
+        <v>3071489.88032</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9922379.559599999</v>
+        <v>1327523.3135</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6672566.202159999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1592180.52209</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2054153.954</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>373565.21988</v>
+        <v>186485.80822</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>987931.12322</v>
+        <v>542167.82048</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2306611.83642</v>
+        <v>1426508.60913</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>531146.8229200001</v>
+        <v>345162.01989</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1580636.22514</v>
+        <v>199959.49688</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1133917.95197</v>
+        <v>915830.40029</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>891797.4017899999</v>
+        <v>235271.26295</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2089015.36547</v>
+        <v>1255630.48748</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1062042.11848</v>
+        <v>579851.01682</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1654495.48818</v>
+        <v>350068.5286100001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2816832.73844</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1761918.25096</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1714090.998</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2047.90647</v>
+        <v>1730.52654</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>373.30162</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>412.61849</v>
+        <v>17.24711</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>377.90708</v>
+        <v>37.45878</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3451.80665</v>
+        <v>524.9640899999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1538.06113</v>
+        <v>980.3544000000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1956.307</v>
+        <v>1482.40799</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3490.32269</v>
+        <v>2936.13249</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2069.37018</v>
+        <v>394.09959</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1392.18984</v>
+        <v>182.36321</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2237.65449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>793.05972</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>105500.198</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>31385.85838</v>
+        <v>10389.91423</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>31292.37346000001</v>
+        <v>8211.662849999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>30436.27606</v>
+        <v>14438.32576</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>26948.18428</v>
+        <v>13710.59745</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>16280.20475</v>
+        <v>7319.75516</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>122652.6946</v>
+        <v>10787.42553</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>54429.79876000001</v>
+        <v>7670.816799999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>48735.27316</v>
+        <v>13303.76282</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>45651.71333999999</v>
+        <v>11634.8255</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>40621.88192000001</v>
+        <v>24449.41199</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>30876.71798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16366.85939</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>36791.007</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>340131.45503</v>
+        <v>174365.36745</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>956265.44814</v>
+        <v>533956.15763</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2275762.94187</v>
+        <v>1412053.03626</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>503820.73156</v>
+        <v>331413.96366</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1560904.21374</v>
+        <v>192114.77763</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1009727.19624</v>
+        <v>904062.6203599999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>835411.2960299999</v>
+        <v>226118.03816</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2036789.76962</v>
+        <v>1239390.59217</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1014321.03496</v>
+        <v>567822.09173</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1612481.41642</v>
+        <v>325436.75341</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2783718.36597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1744758.33185</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1571799.793</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5175263.490599999</v>
+        <v>2891418.54419</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10631669.26737</v>
+        <v>2518206.44858</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5703544.406340001</v>
+        <v>3236120.024409999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8749812.576330001</v>
+        <v>3995718.77786</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>10853991.58858</v>
+        <v>5857001.64204</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7550122.586460001</v>
+        <v>3837934.33825</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>16769283.10655</v>
+        <v>13160514.60225</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7864445.424029998</v>
+        <v>4196901.77707</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>17408128.07287</v>
+        <v>8147918.17606</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5438461.686209999</v>
+        <v>5087748.174140001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19619171.1507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2335718.49413</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4431656.509</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>223183.16993</v>
+        <v>101894.43329</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1091881.00971</v>
+        <v>102780.64777</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>637087.0906500001</v>
+        <v>328577.58803</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>348173.40809</v>
+        <v>151224.04687</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>542439.1775100001</v>
+        <v>187488.30076</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>432859.48022</v>
+        <v>214310.60201</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>607445.8732</v>
+        <v>378162.14222</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>645259.17701</v>
+        <v>298782.35314</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>784638.7019300001</v>
+        <v>387308.2420799999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1417469.56589</v>
+        <v>467770.23683</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>965762.79164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>408438.29941</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>695888.135</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4952080.320670002</v>
+        <v>2789524.1109</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>9539788.25766</v>
+        <v>2415425.80081</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5066457.315690001</v>
+        <v>2907542.43638</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8401639.16824</v>
+        <v>3844494.73099</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>10311552.41107</v>
+        <v>5669513.341279999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>7117263.10624</v>
+        <v>3623623.73624</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>16161837.23335</v>
+        <v>12782352.46003</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7219186.247020002</v>
+        <v>3898119.42393</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16623489.37094</v>
+        <v>7760609.933979999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4020992.120319999</v>
+        <v>4619977.937310002</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>18653408.35905999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1927280.19472</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3735768.374</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>494</v>
+        <v>135</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>545</v>
+        <v>156</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>602</v>
+        <v>171</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>569</v>
+        <v>143</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>612</v>
+        <v>166</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>666</v>
+        <v>193</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>726</v>
+        <v>209</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>831</v>
+        <v>260</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>534</v>
+        <v>158</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>156</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>